--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -726,16 +726,16 @@
         <v>96.69</v>
       </c>
       <c r="H2">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I2">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J2">
         <v>96.69</v>
       </c>
       <c r="K2">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L2">
         <v>339.92</v>
@@ -771,19 +771,19 @@
         <v>7.5</v>
       </c>
       <c r="W2">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X2">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y2">
         <v>3093.89</v>
       </c>
       <c r="Z2">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA2">
-        <v>56.0375</v>
+        <v>56.04</v>
       </c>
       <c r="AB2">
         <v>306.41</v>
@@ -795,7 +795,7 @@
         <v>158.52</v>
       </c>
       <c r="AE2">
-        <v>1752.050555555556</v>
+        <v>1752.05</v>
       </c>
       <c r="AF2">
         <v>549.46</v>
@@ -807,10 +807,10 @@
         <v>511.56</v>
       </c>
       <c r="AI2">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ2">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK2">
         <v>29.08</v>
@@ -825,7 +825,7 @@
         <v>1428.12</v>
       </c>
       <c r="AO2">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP2">
         <v>16.6</v>
@@ -834,7 +834,7 @@
         <v>2622.08</v>
       </c>
       <c r="AR2">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -860,16 +860,16 @@
         <v>13.38</v>
       </c>
       <c r="H3">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I3">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J3">
         <v>13.38</v>
       </c>
       <c r="K3">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L3">
         <v>699.89</v>
@@ -905,19 +905,19 @@
         <v>17.83</v>
       </c>
       <c r="W3">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X3">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y3">
         <v>2614.9</v>
       </c>
       <c r="Z3">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA3">
-        <v>56.0375</v>
+        <v>56.04</v>
       </c>
       <c r="AB3">
         <v>645.98</v>
@@ -929,7 +929,7 @@
         <v>358.58</v>
       </c>
       <c r="AE3">
-        <v>1752.050555555556</v>
+        <v>1752.05</v>
       </c>
       <c r="AF3">
         <v>1110.78</v>
@@ -941,10 +941,10 @@
         <v>331.01</v>
       </c>
       <c r="AI3">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ3">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK3">
         <v>64.88</v>
@@ -968,7 +968,7 @@
         <v>1323.33</v>
       </c>
       <c r="AR3">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -994,16 +994,16 @@
         <v>40.89</v>
       </c>
       <c r="H4">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I4">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J4">
         <v>40.89</v>
       </c>
       <c r="K4">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L4">
         <v>858.5</v>
@@ -1039,19 +1039,19 @@
         <v>29.84</v>
       </c>
       <c r="W4">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X4">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y4">
         <v>2901.65</v>
       </c>
       <c r="Z4">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA4">
-        <v>56.0375</v>
+        <v>56.04</v>
       </c>
       <c r="AB4">
         <v>712.48</v>
@@ -1075,10 +1075,10 @@
         <v>418.65</v>
       </c>
       <c r="AI4">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ4">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK4">
         <v>50.84</v>
@@ -1102,7 +1102,7 @@
         <v>1988.86</v>
       </c>
       <c r="AR4">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -1128,16 +1128,16 @@
         <v>25.33</v>
       </c>
       <c r="H5">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I5">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J5">
         <v>25.33</v>
       </c>
       <c r="K5">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L5">
         <v>1050.06</v>
@@ -1173,19 +1173,19 @@
         <v>140.6</v>
       </c>
       <c r="W5">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X5">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y5">
         <v>3082.26</v>
       </c>
       <c r="Z5">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA5">
-        <v>56.0375</v>
+        <v>56.04</v>
       </c>
       <c r="AB5">
         <v>980.02</v>
@@ -1209,10 +1209,10 @@
         <v>469.36</v>
       </c>
       <c r="AI5">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ5">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK5">
         <v>67.78</v>
@@ -1236,7 +1236,7 @@
         <v>1797.34</v>
       </c>
       <c r="AR5">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1262,10 +1262,10 @@
         <v>26.89</v>
       </c>
       <c r="H6">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I6">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J6">
         <v>28.34</v>
@@ -1307,16 +1307,16 @@
         <v>227.45</v>
       </c>
       <c r="W6">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X6">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y6">
         <v>2064.74</v>
       </c>
       <c r="Z6">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA6">
         <v>87.01000000000001</v>
@@ -1343,10 +1343,10 @@
         <v>3317.46</v>
       </c>
       <c r="AI6">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ6">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK6">
         <v>108.03</v>
@@ -1361,7 +1361,7 @@
         <v>4572.53</v>
       </c>
       <c r="AO6">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP6">
         <v>81.69</v>
@@ -1370,7 +1370,7 @@
         <v>562.75</v>
       </c>
       <c r="AR6">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1396,10 +1396,10 @@
         <v>1030.51</v>
       </c>
       <c r="H7">
-        <v>445.515</v>
+        <v>445.52</v>
       </c>
       <c r="I7">
-        <v>509.0007142857143</v>
+        <v>509</v>
       </c>
       <c r="J7">
         <v>1032.04</v>
@@ -1441,16 +1441,16 @@
         <v>107.69</v>
       </c>
       <c r="W7">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X7">
-        <v>676.0857142857143</v>
+        <v>676.09</v>
       </c>
       <c r="Y7">
         <v>3761.92</v>
       </c>
       <c r="Z7">
-        <v>2795.473571428572</v>
+        <v>2795.47</v>
       </c>
       <c r="AA7">
         <v>12.04</v>
@@ -1477,10 +1477,10 @@
         <v>2505.21</v>
       </c>
       <c r="AI7">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ7">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK7">
         <v>114.91</v>
@@ -1495,7 +1495,7 @@
         <v>4968.24</v>
       </c>
       <c r="AO7">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP7">
         <v>81.69</v>
@@ -1504,7 +1504,7 @@
         <v>2233.2</v>
       </c>
       <c r="AR7">
-        <v>1238.517857142857</v>
+        <v>1238.52</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1611,10 +1611,10 @@
         <v>2701.38</v>
       </c>
       <c r="AI8">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ8">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK8">
         <v>193.06</v>
@@ -1629,7 +1629,7 @@
         <v>5056.95</v>
       </c>
       <c r="AO8">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP8">
         <v>81.69</v>
@@ -1745,10 +1745,10 @@
         <v>3644.36</v>
       </c>
       <c r="AI9">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ9">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK9">
         <v>200.28</v>
@@ -1763,7 +1763,7 @@
         <v>8384.17</v>
       </c>
       <c r="AO9">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP9">
         <v>81.69</v>
@@ -1879,10 +1879,10 @@
         <v>4186.27</v>
       </c>
       <c r="AI10">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ10">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK10">
         <v>133.95</v>
@@ -1897,7 +1897,7 @@
         <v>11381.19</v>
       </c>
       <c r="AO10">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP10">
         <v>81.69</v>
@@ -2013,10 +2013,10 @@
         <v>3519.61</v>
       </c>
       <c r="AI11">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AJ11">
-        <v>218.895</v>
+        <v>218.9</v>
       </c>
       <c r="AK11">
         <v>138.25</v>
@@ -2031,7 +2031,7 @@
         <v>14239.77</v>
       </c>
       <c r="AO11">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP11">
         <v>81.69</v>
@@ -2075,7 +2075,7 @@
         <v>508.93</v>
       </c>
       <c r="K12">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L12">
         <v>468.58</v>
@@ -2165,7 +2165,7 @@
         <v>14684.51</v>
       </c>
       <c r="AO12">
-        <v>21348.7725</v>
+        <v>21348.77</v>
       </c>
       <c r="AP12">
         <v>222.26</v>
@@ -2296,7 +2296,7 @@
         <v>383.82</v>
       </c>
       <c r="AN13">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO13">
         <v>11625.13</v>
@@ -2343,7 +2343,7 @@
         <v>483</v>
       </c>
       <c r="K14">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L14">
         <v>485</v>
@@ -2379,7 +2379,7 @@
         <v>1211</v>
       </c>
       <c r="W14">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X14">
         <v>834</v>
@@ -2430,7 +2430,7 @@
         <v>576</v>
       </c>
       <c r="AN14">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO14">
         <v>19545</v>
@@ -2477,7 +2477,7 @@
         <v>562</v>
       </c>
       <c r="K15">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L15">
         <v>544</v>
@@ -2564,7 +2564,7 @@
         <v>285</v>
       </c>
       <c r="AN15">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO15">
         <v>19275</v>
@@ -2611,7 +2611,7 @@
         <v>638</v>
       </c>
       <c r="K16">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L16">
         <v>2367</v>
@@ -2698,7 +2698,7 @@
         <v>183</v>
       </c>
       <c r="AN16">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO16">
         <v>22892</v>
@@ -2745,7 +2745,7 @@
         <v>2278</v>
       </c>
       <c r="K17">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L17">
         <v>2273</v>
@@ -2781,7 +2781,7 @@
         <v>1997</v>
       </c>
       <c r="W17">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X17">
         <v>849</v>
@@ -2832,7 +2832,7 @@
         <v>224</v>
       </c>
       <c r="AN17">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO17">
         <v>29195</v>
@@ -2879,7 +2879,7 @@
         <v>1789</v>
       </c>
       <c r="K18">
-        <v>136.799</v>
+        <v>136.8</v>
       </c>
       <c r="L18">
         <v>2707</v>
@@ -2915,7 +2915,7 @@
         <v>668</v>
       </c>
       <c r="W18">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X18">
         <v>788</v>
@@ -2966,7 +2966,7 @@
         <v>510</v>
       </c>
       <c r="AN18">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO18">
         <v>31907</v>
@@ -3100,7 +3100,7 @@
         <v>1786</v>
       </c>
       <c r="AN19">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO19">
         <v>35935</v>
@@ -3183,7 +3183,7 @@
         <v>543</v>
       </c>
       <c r="W20">
-        <v>495.8819999999999</v>
+        <v>495.88</v>
       </c>
       <c r="X20">
         <v>1233</v>
@@ -3225,7 +3225,7 @@
         <v>366</v>
       </c>
       <c r="AK20">
-        <v>361.4416666666667</v>
+        <v>361.44</v>
       </c>
       <c r="AL20">
         <v>6451</v>
@@ -3234,7 +3234,7 @@
         <v>2041</v>
       </c>
       <c r="AN20">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO20">
         <v>40884</v>
@@ -3314,7 +3314,7 @@
         <v>5040</v>
       </c>
       <c r="V21">
-        <v>618.6947368421053</v>
+        <v>618.6900000000001</v>
       </c>
       <c r="W21">
         <v>286</v>
@@ -3359,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="AK21">
-        <v>361.4416666666667</v>
+        <v>361.44</v>
       </c>
       <c r="AL21">
         <v>6559</v>
@@ -3368,7 +3368,7 @@
         <v>2210</v>
       </c>
       <c r="AN21">
-        <v>6907.417272727273</v>
+        <v>6907.42</v>
       </c>
       <c r="AO21">
         <v>44927</v>
